--- a/medicine/Enfance/Études_sur_l'enfance/Études_sur_l'enfance.xlsx
+++ b/medicine/Enfance/Études_sur_l'enfance/Études_sur_l'enfance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89tudes_sur_l%27enfance</t>
+          <t>Études_sur_l'enfance</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les études sur l'enfance (en anglais : Childhood Studies) sont un courant de recherche d'origine anglo-saxonne, qui, comme les études culturelles (cultural studies), est une pratique interdisciplinaire. Fondées au collège de Brooklyn de l'université de la ville de New York en 1991, elles se donnent pour objet d'étudier l'enfance pour elle-même, en soi, et non en relation avec la famille ou l'école. Voulant opérer une approche unifiée de l'enfance et de la jeunesse, les Childhood Studies empruntent tant aux arts, aux humanités, qu'aux sciences sociales, à la médecine, ou au droit[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les études sur l'enfance (en anglais : Childhood Studies) sont un courant de recherche d'origine anglo-saxonne, qui, comme les études culturelles (cultural studies), est une pratique interdisciplinaire. Fondées au collège de Brooklyn de l'université de la ville de New York en 1991, elles se donnent pour objet d'étudier l'enfance pour elle-même, en soi, et non en relation avec la famille ou l'école. Voulant opérer une approche unifiée de l'enfance et de la jeunesse, les Childhood Studies empruntent tant aux arts, aux humanités, qu'aux sciences sociales, à la médecine, ou au droit,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89tudes_sur_l%27enfance</t>
+          <t>Études_sur_l'enfance</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Ouvrages et articles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>James Allison &amp; James Adrian, « Key Concepts in Childhood Studies », Sage Publications, 2008.
 James Allison &amp; Alan Prout, « Constructing and Reconstructing Childhood: Contemporary Issues in the Sociological Study of Childhood », Routledge, 1997
@@ -534,9 +548,43 @@
 Régine Sirota :
 Sociologie de l’enfance et sociologie de l’éducation : va-et-vient, Éducation et sociétés, 2017/2 (no 40), p. 105-121 [lire en ligne].
 « French Childhood Sociology : An Unusual, Minor Topic or Well-Defined Field? », Current Sociology, vol. 58, no 2, p. 250-271 [lire en ligne].
-Karen Wells, Childhood in a Global Perspective. Polity, 2009   (ISBN 978-0-745-68494-9)
-Revues
-Childhood (journal) (en)
+Karen Wells, Childhood in a Global Perspective. Polity, 2009   (ISBN 978-0-745-68494-9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Études_sur_l'enfance</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89tudes_sur_l%27enfance</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Ouvrages et articles</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Revues</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Childhood (journal) (en)
 Global Studies of Childhood
 Journal of the History of Childhood and Youth (en)
 Sociological Studies of Childhood</t>
